--- a/data/pomocka k saldo (vlookup).XLSX
+++ b/data/pomocka k saldo (vlookup).XLSX
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Mark-CUCA\Administratíva\Postupy\3 Vytvorenie salda zákazníka (FPL9)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin.Mataseje\Downloads\SALDO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Manuálne účtovanie</t>
   </si>
@@ -57,10 +57,10 @@
     <t>Vrátená úhrada</t>
   </si>
   <si>
-    <t>(centové vyrovnania)</t>
-  </si>
-  <si>
     <t>Typ dokladu</t>
+  </si>
+  <si>
+    <t>Cent. vyrovnanie</t>
   </si>
 </sst>
 </file>
@@ -420,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -432,15 +432,15 @@
     <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -448,7 +448,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -456,7 +456,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -464,7 +464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -472,18 +472,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -491,13 +488,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
